--- a/data/trans_bre/Predimed_R3-Dificultad-trans_bre.xlsx
+++ b/data/trans_bre/Predimed_R3-Dificultad-trans_bre.xlsx
@@ -555,7 +555,7 @@
         <v>5.022751836276801</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.5864452072126777</v>
+        <v>0.5864452072126776</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.15397459882326</v>
+        <v>1.498501498166237</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>0.1059423825663037</v>
+        <v>0.1414319448782644</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>8.788376805508962</v>
+        <v>8.202706059312174</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>1.378711603515082</v>
+        <v>1.258815729541651</v>
       </c>
     </row>
     <row r="7">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-3.399585109120875</v>
+        <v>-3.379936671166861</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.2210726907880592</v>
+        <v>-0.2186321653034878</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.609442088782474</v>
+        <v>2.489143283626231</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.2266941290477237</v>
+        <v>0.2207700394051613</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>1.252147451607719</v>
+        <v>1.252147451607721</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.08230521129951605</v>
+        <v>0.08230521129951623</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-1.996792455713904</v>
+        <v>-2.318848203014683</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>-0.1135206362566513</v>
+        <v>-0.1361942812878926</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.591338635592891</v>
+        <v>4.687751031454105</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>0.3516593702544006</v>
+        <v>0.3444833834403923</v>
       </c>
     </row>
     <row r="13">
@@ -690,10 +690,10 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>3.338810641296719</v>
+        <v>3.338810641296725</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>0.1190589194871721</v>
+        <v>0.1190589194871723</v>
       </c>
     </row>
     <row r="14">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.261808561010025</v>
+        <v>-1.427059210815024</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.04047997061115582</v>
+        <v>-0.04170038111191836</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.438382365623069</v>
+        <v>7.455150303006707</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.287392066917032</v>
+        <v>0.2874304423195889</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>1.262417897205162</v>
+        <v>1.262417897205159</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.07227792075291975</v>
+        <v>0.07227792075291957</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.8310314391221287</v>
+        <v>-0.5329021154707627</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>-0.04402371600463144</v>
+        <v>-0.02864123461778394</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>2.990564506937867</v>
+        <v>3.068899238628092</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.1813757113246112</v>
+        <v>0.1844419907446754</v>
       </c>
     </row>
     <row r="19">
